--- a/data/coremark-optimisations.xlsx
+++ b/data/coremark-optimisations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t xml:space="preserve">coremk_or0    </t>
   </si>
@@ -160,19 +160,27 @@
   </si>
   <si>
     <t>(unfair) avoid virtual calls</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>UPDATED 20180301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,10 +340,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -767,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -895,6 +911,9 @@
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -920,20 +939,20 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>772.5</v>
+        <v>774.4</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F24" si="0">E16-H16-J16</f>
-        <v>124.30000000000001</v>
+        <v>124.29999999999995</v>
       </c>
       <c r="H16">
-        <v>360.4</v>
+        <v>361.3</v>
       </c>
       <c r="J16">
-        <v>287.8</v>
+        <v>288.8</v>
       </c>
       <c r="L16">
-        <v>773.1</v>
+        <v>775</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
@@ -965,14 +984,14 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>310</v>
+        <v>309.8</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55.900000000000006</v>
       </c>
       <c r="H18">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="J18">
         <v>59</v>
@@ -1154,71 +1173,71 @@
       <c r="D32" t="s">
         <v>22</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <f>F15</f>
         <v>17.899999999999991</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <f>H15</f>
         <v>49.2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <f>J15</f>
         <v>18</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <f>L15</f>
         <v>85.1</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="1:13">
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <f>F16</f>
-        <v>124.30000000000001</v>
+        <v>124.29999999999995</v>
       </c>
       <c r="G33" s="1">
         <f>(F33-F$32)/F$32</f>
-        <v>5.9441340782122944</v>
-      </c>
-      <c r="H33">
+        <v>5.9441340782122909</v>
+      </c>
+      <c r="H33" s="3">
         <f>H16</f>
-        <v>360.4</v>
+        <v>361.3</v>
       </c>
       <c r="I33" s="1">
         <f>(H33-H$32)/H$32</f>
-        <v>6.3252032520325194</v>
-      </c>
-      <c r="J33">
+        <v>6.3434959349593498</v>
+      </c>
+      <c r="J33" s="3">
         <f>J16</f>
-        <v>287.8</v>
+        <v>288.8</v>
       </c>
       <c r="K33" s="1">
         <f>(J33-J$32)/J$32</f>
-        <v>14.988888888888889</v>
-      </c>
-      <c r="L33">
+        <v>15.044444444444444</v>
+      </c>
+      <c r="L33" s="3">
         <f>L16</f>
-        <v>773.1</v>
+        <v>775</v>
       </c>
       <c r="M33" s="1">
         <f>(L33-L$32)/L$32</f>
-        <v>8.0846063454759118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
+        <v>8.1069330199764984</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <f>F17</f>
         <v>55.90000000000002</v>
       </c>
@@ -1226,7 +1245,7 @@
         <f>(F34-F$32)/F$32</f>
         <v>2.1229050279329633</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <f>H17</f>
         <v>232</v>
       </c>
@@ -1234,7 +1253,7 @@
         <f>(H34-H$32)/H$32</f>
         <v>3.7154471544715446</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <f>J17</f>
         <v>75.7</v>
       </c>
@@ -1242,7 +1261,7 @@
         <f>(J34-J$32)/J$32</f>
         <v>3.2055555555555557</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <f>L17</f>
         <v>363.8</v>
       </c>
@@ -1251,30 +1270,30 @@
         <v>3.2749706227967104</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="1:13">
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <f>F18-F17</f>
-        <v>9.9999999999980105E-2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <f>F35/F$32</f>
-        <v>5.5865921787698405E-3</v>
-      </c>
-      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <f>H18-H17</f>
-        <v>-37</v>
+        <v>-37.099999999999994</v>
       </c>
       <c r="I35" s="1">
         <f>H35/H$32</f>
-        <v>-0.75203252032520318</v>
-      </c>
-      <c r="J35">
+        <v>-0.75406504065040636</v>
+      </c>
+      <c r="J35" s="3">
         <f>J18-J17</f>
         <v>-16.700000000000003</v>
       </c>
@@ -1282,7 +1301,7 @@
         <f>J35/J$32</f>
         <v>-0.92777777777777792</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <f>L18-L17</f>
         <v>-53.800000000000011</v>
       </c>
@@ -1291,30 +1310,30 @@
         <v>-0.63219741480611058</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="1:13">
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <f t="shared" ref="F36:H39" si="1">F19-F18</f>
-        <v>-0.10000000000000853</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <f>F36/F$32</f>
-        <v>-5.5865921787714287E-3</v>
-      </c>
-      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>-104.8</v>
+        <v>-104.7</v>
       </c>
       <c r="I36" s="1">
         <f>H36/H$32</f>
-        <v>-2.1300813008130079</v>
-      </c>
-      <c r="J36">
+        <v>-2.1280487804878048</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" ref="J36" si="2">J19-J18</f>
         <v>0</v>
       </c>
@@ -1322,7 +1341,7 @@
         <f>J36/J$32</f>
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <f t="shared" ref="L36" si="3">L19-L18</f>
         <v>-104.69999999999999</v>
       </c>
@@ -1331,14 +1350,14 @@
         <v>-1.2303172737955346</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="1:13">
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1346,7 +1365,7 @@
         <f>F37/F$32</f>
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
@@ -1354,7 +1373,7 @@
         <f>H37/H$32</f>
         <v>-0.1524390243902439</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <f t="shared" ref="J37" si="4">J20-J19</f>
         <v>0</v>
       </c>
@@ -1362,7 +1381,7 @@
         <f>J37/J$32</f>
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <f t="shared" ref="L37" si="5">L20-L19</f>
         <v>-7.5</v>
       </c>
@@ -1371,14 +1390,14 @@
         <v>-8.8131609870740313E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="1:13">
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1386,7 +1405,7 @@
         <f>F38/F$32</f>
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <f t="shared" si="1"/>
         <v>-18.100000000000009</v>
       </c>
@@ -1394,7 +1413,7 @@
         <f>H38/H$32</f>
         <v>-0.36788617886178876</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <f t="shared" ref="J38" si="6">J21-J20</f>
         <v>-2.3999999999999986</v>
       </c>
@@ -1402,7 +1421,7 @@
         <f>J38/J$32</f>
         <v>-0.13333333333333325</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <f t="shared" ref="L38" si="7">L21-L20</f>
         <v>-20.5</v>
       </c>
@@ -1411,14 +1430,14 @@
         <v>-0.24089306698002352</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="1:13">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
@@ -1426,7 +1445,7 @@
         <f>F39/F$32</f>
         <v>-0.22346368715083809</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
@@ -1434,7 +1453,7 @@
         <f>H39/H$32</f>
         <v>-1.016260162601626E-2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <f t="shared" ref="J39" si="8">J22-J21</f>
         <v>-3.5</v>
       </c>
@@ -1442,7 +1461,7 @@
         <f>J39/J$32</f>
         <v>-0.19444444444444445</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <f t="shared" ref="L39" si="9">L22-L21</f>
         <v>-8</v>
       </c>
@@ -1451,11 +1470,11 @@
         <v>-9.400705052878966E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="1:13">
       <c r="D40" t="s">
         <v>36</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <f>F22</f>
         <v>51.9</v>
       </c>
@@ -1463,7 +1482,7 @@
         <f>(F40-F$32)/F$32</f>
         <v>1.8994413407821242</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <f>H22</f>
         <v>64.099999999999994</v>
       </c>
@@ -1471,7 +1490,7 @@
         <f>(H40-H$32)/H$32</f>
         <v>0.30284552845528434</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <f>J22</f>
         <v>53.1</v>
       </c>
@@ -1479,7 +1498,7 @@
         <f>(J40-J$32)/J$32</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <f>L22</f>
         <v>169.3</v>
       </c>
@@ -1488,14 +1507,14 @@
         <v>0.98942420681551146</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="1:13">
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <f>F23-F22</f>
         <v>0.80000000000000426</v>
       </c>
@@ -1503,7 +1522,7 @@
         <f>F41/F$32</f>
         <v>4.4692737430167856E-2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <f>H23-H22</f>
         <v>0</v>
       </c>
@@ -1511,7 +1530,7 @@
         <f>H41/H$32</f>
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <f>J23-J22</f>
         <v>-10.399999999999999</v>
       </c>
@@ -1519,7 +1538,7 @@
         <f>J41/J$32</f>
         <v>-0.57777777777777772</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <f>L23-L22</f>
         <v>-9.6000000000000227</v>
       </c>
@@ -1528,14 +1547,14 @@
         <v>-0.11280846063454787</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="1:13">
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <f>F24-F23</f>
         <v>-22.800000000000011</v>
       </c>
@@ -1543,7 +1562,7 @@
         <f>F42/F$32</f>
         <v>-1.2737430167597779</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <f>H24-H23</f>
         <v>0</v>
       </c>
@@ -1551,7 +1570,7 @@
         <f>H42/H$32</f>
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <f>J24-J23</f>
         <v>0</v>
       </c>
@@ -1559,7 +1578,7 @@
         <f>J42/J$32</f>
         <v>0</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <f>L24-L23</f>
         <v>-22.799999999999983</v>
       </c>
@@ -1568,11 +1587,11 @@
         <v>-0.26792009400705036</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="1:13">
       <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <f>F24</f>
         <v>29.899999999999991</v>
       </c>
@@ -1580,7 +1599,7 @@
         <f>(F43-F$32)/F$32</f>
         <v>0.67039106145251426</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <f>H24</f>
         <v>64.099999999999994</v>
       </c>
@@ -1588,7 +1607,7 @@
         <f>(H43-H$32)/H$32</f>
         <v>0.30284552845528434</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <f>J24</f>
         <v>42.7</v>
       </c>
@@ -1596,7 +1615,7 @@
         <f>(J43-J$32)/J$32</f>
         <v>1.3722222222222225</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <f>L24</f>
         <v>136.9</v>
       </c>
@@ -1604,6 +1623,12 @@
         <f>(L43-L$32)/L$32</f>
         <v>0.60869565217391319</v>
       </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/coremark-optimisations.xlsx
+++ b/data/coremark-optimisations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +786,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -939,20 +939,20 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>774.4</v>
+        <v>756.2</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F24" si="0">E16-H16-J16</f>
-        <v>124.29999999999995</v>
+        <v>115.40000000000003</v>
       </c>
       <c r="H16">
-        <v>361.3</v>
+        <v>360</v>
       </c>
       <c r="J16">
-        <v>288.8</v>
+        <v>280.8</v>
       </c>
       <c r="L16">
-        <v>775</v>
+        <v>756.7</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
@@ -963,20 +963,20 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>363.6</v>
+        <v>361.9</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>55.90000000000002</v>
+        <v>54.999999999999972</v>
       </c>
       <c r="H17">
-        <v>232</v>
+        <v>231.9</v>
       </c>
       <c r="J17">
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="L17">
-        <v>363.8</v>
+        <v>362.1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -984,20 +984,20 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>309.8</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>55.900000000000006</v>
+        <v>55.100000000000009</v>
       </c>
       <c r="H18">
-        <v>194.9</v>
+        <v>194.8</v>
       </c>
       <c r="J18">
-        <v>59</v>
+        <v>58.2</v>
       </c>
       <c r="L18">
-        <v>310</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1005,20 +1005,20 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>205.1</v>
+        <v>203.4</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>55.899999999999991</v>
+        <v>55.100000000000009</v>
       </c>
       <c r="H19">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="J19">
-        <v>59</v>
+        <v>58.2</v>
       </c>
       <c r="L19">
-        <v>205.3</v>
+        <v>203.6</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1026,20 +1026,20 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>197.6</v>
+        <v>195.9</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>55.899999999999991</v>
+        <v>55.100000000000009</v>
       </c>
       <c r="H20">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="J20">
-        <v>59</v>
+        <v>58.2</v>
       </c>
       <c r="L20">
-        <v>197.8</v>
+        <v>196.1</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1047,20 +1047,20 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>177.1</v>
+        <v>175.4</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>55.9</v>
+        <v>55.100000000000009</v>
       </c>
       <c r="H21">
-        <v>64.599999999999994</v>
+        <v>64.5</v>
       </c>
       <c r="J21">
-        <v>56.6</v>
+        <v>55.8</v>
       </c>
       <c r="L21">
-        <v>177.3</v>
+        <v>175.6</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1068,20 +1068,20 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>169.1</v>
+        <v>168.2</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>51.9</v>
+        <v>51.599999999999987</v>
       </c>
       <c r="H22">
-        <v>64.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="J22">
-        <v>53.1</v>
+        <v>52.6</v>
       </c>
       <c r="L22">
-        <v>169.3</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1089,20 +1089,20 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>159.5</v>
+        <v>158.5</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="H23">
-        <v>64.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="J23">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="L23">
-        <v>159.69999999999999</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1110,20 +1110,20 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>136.69999999999999</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>29.899999999999991</v>
+        <v>29.500000000000014</v>
       </c>
       <c r="H24">
-        <v>64.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="J24">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="L24">
-        <v>136.9</v>
+        <v>135.9</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1">
@@ -1199,35 +1199,35 @@
       </c>
       <c r="F33" s="3">
         <f>F16</f>
-        <v>124.29999999999995</v>
+        <v>115.40000000000003</v>
       </c>
       <c r="G33" s="1">
         <f>(F33-F$32)/F$32</f>
-        <v>5.9441340782122909</v>
+        <v>5.4469273743016808</v>
       </c>
       <c r="H33" s="3">
         <f>H16</f>
-        <v>361.3</v>
+        <v>360</v>
       </c>
       <c r="I33" s="1">
         <f>(H33-H$32)/H$32</f>
-        <v>6.3434959349593498</v>
+        <v>6.3170731707317076</v>
       </c>
       <c r="J33" s="3">
         <f>J16</f>
-        <v>288.8</v>
+        <v>280.8</v>
       </c>
       <c r="K33" s="1">
         <f>(J33-J$32)/J$32</f>
-        <v>15.044444444444444</v>
+        <v>14.600000000000001</v>
       </c>
       <c r="L33" s="3">
         <f>L16</f>
-        <v>775</v>
+        <v>756.7</v>
       </c>
       <c r="M33" s="1">
         <f>(L33-L$32)/L$32</f>
-        <v>8.1069330199764984</v>
+        <v>7.891891891891893</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1239,35 +1239,35 @@
       </c>
       <c r="F34" s="3">
         <f>F17</f>
-        <v>55.90000000000002</v>
+        <v>54.999999999999972</v>
       </c>
       <c r="G34" s="1">
         <f>(F34-F$32)/F$32</f>
-        <v>2.1229050279329633</v>
+        <v>2.0726256983240221</v>
       </c>
       <c r="H34" s="3">
         <f>H17</f>
-        <v>232</v>
+        <v>231.9</v>
       </c>
       <c r="I34" s="1">
         <f>(H34-H$32)/H$32</f>
-        <v>3.7154471544715446</v>
+        <v>3.713414634146341</v>
       </c>
       <c r="J34" s="3">
         <f>J17</f>
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="K34" s="1">
         <f>(J34-J$32)/J$32</f>
-        <v>3.2055555555555557</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="L34" s="3">
         <f>L17</f>
-        <v>363.8</v>
+        <v>362.1</v>
       </c>
       <c r="M34" s="1">
         <f>(L34-L$32)/L$32</f>
-        <v>3.2749706227967104</v>
+        <v>3.2549941245593423</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="F35" s="3">
         <f>F18-F17</f>
-        <v>0</v>
+        <v>0.10000000000003695</v>
       </c>
       <c r="G35" s="1">
         <f>F35/F$32</f>
-        <v>0</v>
+        <v>5.5865921787730168E-3</v>
       </c>
       <c r="H35" s="3">
         <f>H18-H17</f>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="J35" s="3">
         <f>J18-J17</f>
-        <v>-16.700000000000003</v>
+        <v>-16.799999999999997</v>
       </c>
       <c r="K35" s="1">
         <f>J35/J$32</f>
-        <v>-0.92777777777777792</v>
+        <v>-0.93333333333333313</v>
       </c>
       <c r="L35" s="3">
         <f>L18-L17</f>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>-104.7</v>
+        <v>-104.70000000000002</v>
       </c>
       <c r="I36" s="1">
         <f>H36/H$32</f>
-        <v>-2.1280487804878048</v>
+        <v>-2.1280487804878052</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ref="J36" si="2">J19-J18</f>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="L36" s="3">
         <f t="shared" ref="L36" si="3">L19-L18</f>
-        <v>-104.69999999999999</v>
+        <v>-104.70000000000002</v>
       </c>
       <c r="M36" s="1">
         <f>L36/L$32</f>
-        <v>-1.2303172737955346</v>
+        <v>-1.230317273795535</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1407,19 +1407,19 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>-18.100000000000009</v>
+        <v>-18.099999999999994</v>
       </c>
       <c r="I38" s="1">
         <f>H38/H$32</f>
-        <v>-0.36788617886178876</v>
+        <v>-0.36788617886178848</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" ref="J38" si="6">J21-J20</f>
-        <v>-2.3999999999999986</v>
+        <v>-2.4000000000000057</v>
       </c>
       <c r="K38" s="1">
         <f>J38/J$32</f>
-        <v>-0.13333333333333325</v>
+        <v>-0.13333333333333364</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" ref="L38" si="7">L21-L20</f>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-3.5000000000000213</v>
       </c>
       <c r="G39" s="1">
         <f>F39/F$32</f>
-        <v>-0.22346368715083809</v>
+        <v>-0.19553072625698453</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
@@ -1455,19 +1455,19 @@
       </c>
       <c r="J39" s="3">
         <f t="shared" ref="J39" si="8">J22-J21</f>
-        <v>-3.5</v>
+        <v>-3.1999999999999957</v>
       </c>
       <c r="K39" s="1">
         <f>J39/J$32</f>
-        <v>-0.19444444444444445</v>
+        <v>-0.17777777777777753</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" ref="L39" si="9">L22-L21</f>
-        <v>-8</v>
+        <v>-7.2999999999999829</v>
       </c>
       <c r="M39" s="1">
         <f>L39/L$32</f>
-        <v>-9.400705052878966E-2</v>
+        <v>-8.5781433607520371E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1476,35 +1476,35 @@
       </c>
       <c r="F40" s="3">
         <f>F22</f>
-        <v>51.9</v>
+        <v>51.599999999999987</v>
       </c>
       <c r="G40" s="1">
         <f>(F40-F$32)/F$32</f>
-        <v>1.8994413407821242</v>
+        <v>1.8826815642458108</v>
       </c>
       <c r="H40" s="3">
         <f>H22</f>
-        <v>64.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="I40" s="1">
         <f>(H40-H$32)/H$32</f>
-        <v>0.30284552845528434</v>
+        <v>0.30081300813008122</v>
       </c>
       <c r="J40" s="3">
         <f>J22</f>
-        <v>53.1</v>
+        <v>52.6</v>
       </c>
       <c r="K40" s="1">
         <f>(J40-J$32)/J$32</f>
-        <v>1.9500000000000002</v>
+        <v>1.9222222222222223</v>
       </c>
       <c r="L40" s="3">
         <f>L22</f>
-        <v>169.3</v>
+        <v>168.3</v>
       </c>
       <c r="M40" s="1">
         <f>(L40-L$32)/L$32</f>
-        <v>0.98942420681551146</v>
+        <v>0.97767332549941277</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1516,11 +1516,11 @@
       </c>
       <c r="F41" s="3">
         <f>F23-F22</f>
-        <v>0.80000000000000426</v>
+        <v>0.60000000000001563</v>
       </c>
       <c r="G41" s="1">
         <f>F41/F$32</f>
-        <v>4.4692737430167856E-2</v>
+        <v>3.3519553072626586E-2</v>
       </c>
       <c r="H41" s="3">
         <f>H23-H22</f>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="J41" s="3">
         <f>J23-J22</f>
-        <v>-10.399999999999999</v>
+        <v>-10.300000000000004</v>
       </c>
       <c r="K41" s="1">
         <f>J41/J$32</f>
-        <v>-0.57777777777777772</v>
+        <v>-0.57222222222222241</v>
       </c>
       <c r="L41" s="3">
         <f>L23-L22</f>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="F42" s="3">
         <f>F24-F23</f>
-        <v>-22.800000000000011</v>
+        <v>-22.699999999999989</v>
       </c>
       <c r="G42" s="1">
         <f>F42/F$32</f>
-        <v>-1.2737430167597779</v>
+        <v>-1.2681564245810055</v>
       </c>
       <c r="H42" s="3">
         <f>H24-H23</f>
@@ -1593,35 +1593,35 @@
       </c>
       <c r="F43" s="3">
         <f>F24</f>
-        <v>29.899999999999991</v>
+        <v>29.500000000000014</v>
       </c>
       <c r="G43" s="1">
         <f>(F43-F$32)/F$32</f>
-        <v>0.67039106145251426</v>
+        <v>0.6480446927374317</v>
       </c>
       <c r="H43" s="3">
         <f>H24</f>
-        <v>64.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="I43" s="1">
         <f>(H43-H$32)/H$32</f>
-        <v>0.30284552845528434</v>
+        <v>0.30081300813008122</v>
       </c>
       <c r="J43" s="3">
         <f>J24</f>
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="K43" s="1">
         <f>(J43-J$32)/J$32</f>
-        <v>1.3722222222222225</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="L43" s="3">
         <f>L24</f>
-        <v>136.9</v>
+        <v>135.9</v>
       </c>
       <c r="M43" s="1">
         <f>(L43-L$32)/L$32</f>
-        <v>0.60869565217391319</v>
+        <v>0.5969447708578145</v>
       </c>
     </row>
     <row r="44" spans="1:13">

--- a/data/coremark-optimisations.xlsx
+++ b/data/coremark-optimisations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,8 +231,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -347,7 +349,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -401,6 +403,7 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +457,7 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,7 +790,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M43" sqref="A31:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -939,20 +943,20 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>756.2</v>
+        <v>774.4</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F24" si="0">E16-H16-J16</f>
-        <v>115.40000000000003</v>
+        <v>124.29999999999995</v>
       </c>
       <c r="H16">
-        <v>360</v>
+        <v>361.3</v>
       </c>
       <c r="J16">
-        <v>280.8</v>
+        <v>288.8</v>
       </c>
       <c r="L16">
-        <v>756.7</v>
+        <v>775</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
@@ -963,20 +967,20 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>361.9</v>
+        <v>363.6</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>54.999999999999972</v>
+        <v>55.90000000000002</v>
       </c>
       <c r="H17">
-        <v>231.9</v>
+        <v>232</v>
       </c>
       <c r="J17">
-        <v>75</v>
+        <v>75.7</v>
       </c>
       <c r="L17">
-        <v>362.1</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1199,35 +1203,35 @@
       </c>
       <c r="F33" s="3">
         <f>F16</f>
-        <v>115.40000000000003</v>
+        <v>124.29999999999995</v>
       </c>
       <c r="G33" s="1">
         <f>(F33-F$32)/F$32</f>
-        <v>5.4469273743016808</v>
+        <v>5.9441340782122909</v>
       </c>
       <c r="H33" s="3">
         <f>H16</f>
-        <v>360</v>
+        <v>361.3</v>
       </c>
       <c r="I33" s="1">
         <f>(H33-H$32)/H$32</f>
-        <v>6.3170731707317076</v>
+        <v>6.3434959349593498</v>
       </c>
       <c r="J33" s="3">
         <f>J16</f>
-        <v>280.8</v>
+        <v>288.8</v>
       </c>
       <c r="K33" s="1">
         <f>(J33-J$32)/J$32</f>
-        <v>14.600000000000001</v>
+        <v>15.044444444444444</v>
       </c>
       <c r="L33" s="3">
         <f>L16</f>
-        <v>756.7</v>
+        <v>775</v>
       </c>
       <c r="M33" s="1">
         <f>(L33-L$32)/L$32</f>
-        <v>7.891891891891893</v>
+        <v>8.1069330199764984</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1239,35 +1243,35 @@
       </c>
       <c r="F34" s="3">
         <f>F17</f>
-        <v>54.999999999999972</v>
+        <v>55.90000000000002</v>
       </c>
       <c r="G34" s="1">
         <f>(F34-F$32)/F$32</f>
-        <v>2.0726256983240221</v>
+        <v>2.1229050279329633</v>
       </c>
       <c r="H34" s="3">
         <f>H17</f>
-        <v>231.9</v>
+        <v>232</v>
       </c>
       <c r="I34" s="1">
         <f>(H34-H$32)/H$32</f>
-        <v>3.713414634146341</v>
+        <v>3.7154471544715446</v>
       </c>
       <c r="J34" s="3">
         <f>J17</f>
-        <v>75</v>
+        <v>75.7</v>
       </c>
       <c r="K34" s="1">
         <f>(J34-J$32)/J$32</f>
-        <v>3.1666666666666665</v>
+        <v>3.2055555555555557</v>
       </c>
       <c r="L34" s="3">
         <f>L17</f>
-        <v>362.1</v>
+        <v>363.8</v>
       </c>
       <c r="M34" s="1">
         <f>(L34-L$32)/L$32</f>
-        <v>3.2549941245593423</v>
+        <v>3.2749706227967104</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1279,35 +1283,35 @@
       </c>
       <c r="F35" s="3">
         <f>F18-F17</f>
-        <v>0.10000000000003695</v>
+        <v>-0.80000000000001137</v>
       </c>
       <c r="G35" s="1">
         <f>F35/F$32</f>
-        <v>5.5865921787730168E-3</v>
+        <v>-4.4692737430168251E-2</v>
       </c>
       <c r="H35" s="3">
         <f>H18-H17</f>
-        <v>-37.099999999999994</v>
+        <v>-37.199999999999989</v>
       </c>
       <c r="I35" s="1">
         <f>H35/H$32</f>
-        <v>-0.75406504065040636</v>
+        <v>-0.75609756097560943</v>
       </c>
       <c r="J35" s="3">
         <f>J18-J17</f>
-        <v>-16.799999999999997</v>
+        <v>-17.5</v>
       </c>
       <c r="K35" s="1">
         <f>J35/J$32</f>
-        <v>-0.93333333333333313</v>
+        <v>-0.97222222222222221</v>
       </c>
       <c r="L35" s="3">
         <f>L18-L17</f>
-        <v>-53.800000000000011</v>
+        <v>-55.5</v>
       </c>
       <c r="M35" s="1">
         <f>L35/L$32</f>
-        <v>-0.63219741480611058</v>
+        <v>-0.65217391304347827</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/data/coremark-optimisations.xlsx
+++ b/data/coremark-optimisations.xlsx
@@ -165,7 +165,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
+    <t>UPDATED 20180326</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,12 +342,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -790,7 +791,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="A31:M43"/>
+      <selection activeCell="M15" sqref="M15:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -937,27 +938,29 @@
       <c r="L15">
         <v>85.1</v>
       </c>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:16">
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>774.4</v>
+        <v>773.8</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F24" si="0">E16-H16-J16</f>
         <v>124.29999999999995</v>
       </c>
       <c r="H16">
-        <v>361.3</v>
+        <v>360.5</v>
       </c>
       <c r="J16">
-        <v>288.8</v>
+        <v>289</v>
       </c>
       <c r="L16">
-        <v>775</v>
-      </c>
+        <v>774.4</v>
+      </c>
+      <c r="M16" s="5"/>
       <c r="P16" t="s">
         <v>24</v>
       </c>
@@ -967,168 +970,179 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>363.6</v>
+        <v>363.2</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>55.90000000000002</v>
+        <v>55.899999999999977</v>
       </c>
       <c r="H17">
-        <v>232</v>
+        <v>231.4</v>
       </c>
       <c r="J17">
-        <v>75.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="L17">
-        <v>363.8</v>
-      </c>
+        <v>363.4</v>
+      </c>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>308.10000000000002</v>
+        <v>307.7</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>55.100000000000009</v>
+        <v>55.099999999999994</v>
       </c>
       <c r="H18">
-        <v>194.8</v>
+        <v>194.1</v>
       </c>
       <c r="J18">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L18">
-        <v>308.3</v>
-      </c>
+        <v>307.89999999999998</v>
+      </c>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13">
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>203.4</v>
+        <v>203</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>55.100000000000009</v>
+        <v>55</v>
       </c>
       <c r="H19">
-        <v>90.1</v>
+        <v>89.5</v>
       </c>
       <c r="J19">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L19">
-        <v>203.6</v>
-      </c>
+        <v>203.2</v>
+      </c>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13">
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>195.9</v>
+        <v>195.5</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>55.100000000000009</v>
+        <v>55.099999999999994</v>
       </c>
       <c r="H20">
-        <v>82.6</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="J20">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L20">
-        <v>196.1</v>
-      </c>
+        <v>195.7</v>
+      </c>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13">
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>175.4</v>
+        <v>175</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>55.100000000000009</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="H21">
-        <v>64.5</v>
+        <v>63.9</v>
       </c>
       <c r="J21">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="L21">
-        <v>175.6</v>
-      </c>
+        <v>175.2</v>
+      </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13">
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>168.2</v>
+        <v>167.7</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>51.599999999999987</v>
+        <v>51.399999999999984</v>
       </c>
       <c r="H22">
-        <v>64</v>
+        <v>63.4</v>
       </c>
       <c r="J22">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="L22">
-        <v>168.3</v>
-      </c>
+        <v>167.9</v>
+      </c>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13">
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23">
-        <v>158.5</v>
+        <v>157.9</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>52.2</v>
       </c>
       <c r="H23">
-        <v>64</v>
+        <v>63.4</v>
       </c>
       <c r="J23">
         <v>42.3</v>
       </c>
       <c r="L23">
-        <v>158.69999999999999</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13">
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>135.80000000000001</v>
+        <v>135.1</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>29.500000000000014</v>
+        <v>29.399999999999991</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>63.4</v>
       </c>
       <c r="J24">
         <v>42.3</v>
       </c>
       <c r="L24">
-        <v>135.9</v>
-      </c>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="M25" s="5"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
@@ -1211,27 +1225,27 @@
       </c>
       <c r="H33" s="3">
         <f>H16</f>
-        <v>361.3</v>
+        <v>360.5</v>
       </c>
       <c r="I33" s="1">
         <f>(H33-H$32)/H$32</f>
-        <v>6.3434959349593498</v>
+        <v>6.3272357723577235</v>
       </c>
       <c r="J33" s="3">
         <f>J16</f>
-        <v>288.8</v>
+        <v>289</v>
       </c>
       <c r="K33" s="1">
         <f>(J33-J$32)/J$32</f>
-        <v>15.044444444444444</v>
+        <v>15.055555555555555</v>
       </c>
       <c r="L33" s="3">
         <f>L16</f>
-        <v>775</v>
+        <v>774.4</v>
       </c>
       <c r="M33" s="1">
         <f>(L33-L$32)/L$32</f>
-        <v>8.1069330199764984</v>
+        <v>8.0998824911868397</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1243,35 +1257,35 @@
       </c>
       <c r="F34" s="3">
         <f>F17</f>
-        <v>55.90000000000002</v>
+        <v>55.899999999999977</v>
       </c>
       <c r="G34" s="1">
         <f>(F34-F$32)/F$32</f>
-        <v>2.1229050279329633</v>
+        <v>2.1229050279329611</v>
       </c>
       <c r="H34" s="3">
         <f>H17</f>
-        <v>232</v>
+        <v>231.4</v>
       </c>
       <c r="I34" s="1">
         <f>(H34-H$32)/H$32</f>
-        <v>3.7154471544715446</v>
+        <v>3.7032520325203246</v>
       </c>
       <c r="J34" s="3">
         <f>J17</f>
-        <v>75.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K34" s="1">
         <f>(J34-J$32)/J$32</f>
-        <v>3.2055555555555557</v>
+        <v>3.2166666666666668</v>
       </c>
       <c r="L34" s="3">
         <f>L17</f>
-        <v>363.8</v>
+        <v>363.4</v>
       </c>
       <c r="M34" s="1">
         <f>(L34-L$32)/L$32</f>
-        <v>3.2749706227967104</v>
+        <v>3.2702702702702702</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1283,27 +1297,27 @@
       </c>
       <c r="F35" s="3">
         <f>F18-F17</f>
-        <v>-0.80000000000001137</v>
+        <v>-0.79999999999998295</v>
       </c>
       <c r="G35" s="1">
         <f>F35/F$32</f>
-        <v>-4.4692737430168251E-2</v>
+        <v>-4.4692737430166669E-2</v>
       </c>
       <c r="H35" s="3">
         <f>H18-H17</f>
-        <v>-37.199999999999989</v>
+        <v>-37.300000000000011</v>
       </c>
       <c r="I35" s="1">
         <f>H35/H$32</f>
-        <v>-0.75609756097560943</v>
+        <v>-0.75813008130081316</v>
       </c>
       <c r="J35" s="3">
         <f>J18-J17</f>
-        <v>-17.5</v>
+        <v>-17.400000000000006</v>
       </c>
       <c r="K35" s="1">
         <f>J35/J$32</f>
-        <v>-0.97222222222222221</v>
+        <v>-0.96666666666666701</v>
       </c>
       <c r="L35" s="3">
         <f>L18-L17</f>
@@ -1323,19 +1337,19 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" ref="F36:H39" si="1">F19-F18</f>
-        <v>0</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="G36" s="1">
         <f>F36/F$32</f>
-        <v>0</v>
+        <v>-5.586592178770635E-3</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>-104.70000000000002</v>
+        <v>-104.6</v>
       </c>
       <c r="I36" s="1">
         <f>H36/H$32</f>
-        <v>-2.1280487804878052</v>
+        <v>-2.1260162601626016</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ref="J36" si="2">J19-J18</f>
@@ -1347,11 +1361,11 @@
       </c>
       <c r="L36" s="3">
         <f t="shared" ref="L36" si="3">L19-L18</f>
-        <v>-104.70000000000002</v>
+        <v>-104.69999999999999</v>
       </c>
       <c r="M36" s="1">
         <f>L36/L$32</f>
-        <v>-1.230317273795535</v>
+        <v>-1.2303172737955346</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1363,19 +1377,19 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="G37" s="1">
         <f>F37/F$32</f>
-        <v>0</v>
+        <v>5.586592178770635E-3</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>-7.5</v>
+        <v>-7.5999999999999943</v>
       </c>
       <c r="I37" s="1">
         <f>H37/H$32</f>
-        <v>-0.1524390243902439</v>
+        <v>-0.15447154471544702</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" ref="J37" si="4">J20-J19</f>
@@ -1403,27 +1417,27 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="G38" s="1">
         <f>F38/F$32</f>
-        <v>0</v>
+        <v>-5.5865921787710314E-3</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>-18.099999999999994</v>
+        <v>-18.000000000000007</v>
       </c>
       <c r="I38" s="1">
         <f>H38/H$32</f>
-        <v>-0.36788617886178848</v>
+        <v>-0.36585365853658547</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" ref="J38" si="6">J21-J20</f>
-        <v>-2.4000000000000057</v>
+        <v>-2.3999999999999986</v>
       </c>
       <c r="K38" s="1">
         <f>J38/J$32</f>
-        <v>-0.13333333333333364</v>
+        <v>-0.13333333333333325</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" ref="L38" si="7">L21-L20</f>
@@ -1443,11 +1457,11 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="1"/>
-        <v>-3.5000000000000213</v>
+        <v>-3.6000000000000085</v>
       </c>
       <c r="G39" s="1">
         <f>F39/F$32</f>
-        <v>-0.19553072625698453</v>
+        <v>-0.20111731843575475</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
@@ -1459,11 +1473,11 @@
       </c>
       <c r="J39" s="3">
         <f t="shared" ref="J39" si="8">J22-J21</f>
-        <v>-3.1999999999999957</v>
+        <v>-3.2000000000000028</v>
       </c>
       <c r="K39" s="1">
         <f>J39/J$32</f>
-        <v>-0.17777777777777753</v>
+        <v>-0.17777777777777792</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" ref="L39" si="9">L22-L21</f>
@@ -1480,35 +1494,35 @@
       </c>
       <c r="F40" s="3">
         <f>F22</f>
-        <v>51.599999999999987</v>
+        <v>51.399999999999984</v>
       </c>
       <c r="G40" s="1">
         <f>(F40-F$32)/F$32</f>
-        <v>1.8826815642458108</v>
+        <v>1.8715083798882686</v>
       </c>
       <c r="H40" s="3">
         <f>H22</f>
-        <v>64</v>
+        <v>63.4</v>
       </c>
       <c r="I40" s="1">
         <f>(H40-H$32)/H$32</f>
-        <v>0.30081300813008122</v>
+        <v>0.28861788617886169</v>
       </c>
       <c r="J40" s="3">
         <f>J22</f>
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="K40" s="1">
         <f>(J40-J$32)/J$32</f>
-        <v>1.9222222222222223</v>
+        <v>1.9388888888888889</v>
       </c>
       <c r="L40" s="3">
         <f>L22</f>
-        <v>168.3</v>
+        <v>167.9</v>
       </c>
       <c r="M40" s="1">
         <f>(L40-L$32)/L$32</f>
-        <v>0.97767332549941277</v>
+        <v>0.97297297297297314</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1520,11 +1534,11 @@
       </c>
       <c r="F41" s="3">
         <f>F23-F22</f>
-        <v>0.60000000000001563</v>
+        <v>0.80000000000001847</v>
       </c>
       <c r="G41" s="1">
         <f>F41/F$32</f>
-        <v>3.3519553072626586E-2</v>
+        <v>4.4692737430168654E-2</v>
       </c>
       <c r="H41" s="3">
         <f>H23-H22</f>
@@ -1536,19 +1550,19 @@
       </c>
       <c r="J41" s="3">
         <f>J23-J22</f>
-        <v>-10.300000000000004</v>
+        <v>-10.600000000000001</v>
       </c>
       <c r="K41" s="1">
         <f>J41/J$32</f>
-        <v>-0.57222222222222241</v>
+        <v>-0.58888888888888902</v>
       </c>
       <c r="L41" s="3">
         <f>L23-L22</f>
-        <v>-9.6000000000000227</v>
+        <v>-9.9000000000000057</v>
       </c>
       <c r="M41" s="1">
         <f>L41/L$32</f>
-        <v>-0.11280846063454787</v>
+        <v>-0.11633372502937728</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1560,11 +1574,11 @@
       </c>
       <c r="F42" s="3">
         <f>F24-F23</f>
-        <v>-22.699999999999989</v>
+        <v>-22.800000000000011</v>
       </c>
       <c r="G42" s="1">
         <f>F42/F$32</f>
-        <v>-1.2681564245810055</v>
+        <v>-1.2737430167597779</v>
       </c>
       <c r="H42" s="3">
         <f>H24-H23</f>
@@ -1584,11 +1598,11 @@
       </c>
       <c r="L42" s="3">
         <f>L24-L23</f>
-        <v>-22.799999999999983</v>
+        <v>-22.699999999999989</v>
       </c>
       <c r="M42" s="1">
         <f>L42/L$32</f>
-        <v>-0.26792009400705036</v>
+        <v>-0.26674500587544053</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1597,19 +1611,19 @@
       </c>
       <c r="F43" s="3">
         <f>F24</f>
-        <v>29.500000000000014</v>
+        <v>29.399999999999991</v>
       </c>
       <c r="G43" s="1">
         <f>(F43-F$32)/F$32</f>
-        <v>0.6480446927374317</v>
+        <v>0.64245810055865948</v>
       </c>
       <c r="H43" s="3">
         <f>H24</f>
-        <v>64</v>
+        <v>63.4</v>
       </c>
       <c r="I43" s="1">
         <f>(H43-H$32)/H$32</f>
-        <v>0.30081300813008122</v>
+        <v>0.28861788617886169</v>
       </c>
       <c r="J43" s="3">
         <f>J24</f>
@@ -1621,11 +1635,11 @@
       </c>
       <c r="L43" s="3">
         <f>L24</f>
-        <v>135.9</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="M43" s="1">
         <f>(L43-L$32)/L$32</f>
-        <v>0.5969447708578145</v>
+        <v>0.58989424206815533</v>
       </c>
     </row>
     <row r="44" spans="1:13">
